--- a/SNS tokenomics.xlsx
+++ b/SNS tokenomics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4065E30-5038-4E54-ADB6-9D76355E6FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41CDDD-1476-46B6-95F4-9553222E8B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNS configuration" sheetId="4" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
   <si>
     <t>ICP price [ICP/USD]</t>
   </si>
@@ -486,20 +486,32 @@
   </si>
   <si>
     <t>Founding team</t>
+  </si>
+  <si>
+    <t>Valuation ICP</t>
+  </si>
+  <si>
+    <t>total_supply</t>
+  </si>
+  <si>
+    <t>Valuation USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="175" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -571,6 +583,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,10 +693,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -834,9 +853,13 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,32 +966,12 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -990,32 +993,12 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1084,35 +1067,12 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1227,16 +1187,16 @@
                 <c:formatCode>#,##0.0;\(#,##0.0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.2328767123287667</c:v>
+                  <c:v>3.7397260273972601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.767123287671232</c:v>
+                  <c:v>17.260273972602739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,32 +1577,12 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1664,32 +1604,12 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1852,10 +1772,10 @@
                   <c:v>9.2496421999591058E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42690656307503577</c:v>
+                  <c:v>0.42690656307503572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48059701492537321</c:v>
+                  <c:v>0.48059701492537316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,32 +2258,12 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent5">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2385,32 +2285,12 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent4">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2529,7 +2409,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48059701492537321</c:v>
+                  <c:v>0.48059701492537316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3750,7 +3630,7 @@
                 <c:formatCode>#,##0;\(#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35000000</c:v>
+                  <c:v>21000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4141,10 +4021,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.3714285714285704E-2</c:v>
+                  <c:v>0.12285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12514285714285717</c:v>
+                  <c:v>0.20857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6098,7 +5978,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
@@ -6363,8 +6243,8 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6858,14 +6738,14 @@
         <v>108</v>
       </c>
       <c r="C27" s="70">
-        <v>35000000</v>
+        <v>21000000</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="66">
         <f t="shared" ref="E27:E32" si="3">C27*10^8</f>
-        <v>3500000000000000</v>
+        <v>2100000000000000</v>
       </c>
       <c r="F27" s="65" t="s">
         <v>90</v>
@@ -6879,14 +6759,14 @@
         <v>110</v>
       </c>
       <c r="C28" s="70">
-        <v>35000000</v>
+        <v>21000000</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="66">
         <f t="shared" si="3"/>
-        <v>3500000000000000</v>
+        <v>2100000000000000</v>
       </c>
       <c r="F28" s="65" t="s">
         <v>90</v>
@@ -6900,14 +6780,14 @@
         <v>112</v>
       </c>
       <c r="C29" s="71">
-        <v>30000000</v>
+        <v>18000000</v>
       </c>
       <c r="D29" s="72" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="73">
         <f t="shared" si="3"/>
-        <v>3000000000000000</v>
+        <v>1800000000000000</v>
       </c>
       <c r="F29" s="72" t="s">
         <v>90</v>
@@ -6963,23 +6843,28 @@
         <v>118</v>
       </c>
       <c r="C32" s="70">
-        <v>35000000</v>
+        <v>61000000</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="66">
         <f t="shared" si="3"/>
-        <v>3500000000000000</v>
+        <v>6100000000000000</v>
       </c>
       <c r="F32" s="65" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
+      <c r="A33" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="B33" s="17"/>
-      <c r="C33" s="6"/>
+      <c r="C33" s="79">
+        <f>SUM(C28:C32)</f>
+        <v>100000000</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -10048,8 +9933,8 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10139,7 +10024,7 @@
       </c>
       <c r="B7" s="13">
         <f>'SNS configuration'!C25*1/'Token price range'!C6 / 10^6</f>
-        <v>6.2328767123287667</v>
+        <v>3.7397260273972601</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -10159,7 +10044,7 @@
       </c>
       <c r="B8" s="14">
         <f>'SNS configuration'!C28/10^6</f>
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -10179,7 +10064,7 @@
       </c>
       <c r="B9" s="13">
         <f>B8-B7</f>
-        <v>28.767123287671232</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -10266,7 +10151,7 @@
       </c>
       <c r="B12" s="18">
         <f>B7</f>
-        <v>6.2328767123287667</v>
+        <v>3.7397260273972601</v>
       </c>
       <c r="C12" s="19">
         <f>'SNS configuration'!B38</f>
@@ -10274,7 +10159,7 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" ref="D12:D19" si="0">B12*C12</f>
-        <v>5.3424657534246567</v>
+        <v>3.205479452054794</v>
       </c>
       <c r="E12" s="21">
         <f>'SNS configuration'!C38</f>
@@ -10289,7 +10174,7 @@
       </c>
       <c r="H12" s="20">
         <f t="shared" ref="H12:H14" si="2">D12*F12*G12</f>
-        <v>5.8099315068493134</v>
+        <v>3.4859589041095882</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I19" si="3">H12/$H$20</f>
@@ -10301,7 +10186,7 @@
       </c>
       <c r="K12" s="20">
         <f t="shared" ref="K12:K14" si="4">H12*J12</f>
-        <v>5.8099315068493134</v>
+        <v>3.4859589041095882</v>
       </c>
       <c r="L12" s="78">
         <f t="shared" ref="L12:L19" si="5">K12/$K$20</f>
@@ -10314,7 +10199,7 @@
       </c>
       <c r="B13" s="18">
         <f>IF('SNS configuration'!B45, (1-'SNS configuration'!B46)*B9, B9)</f>
-        <v>28.767123287671232</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="C13" s="19">
         <f>'SNS configuration'!B39</f>
@@ -10322,7 +10207,7 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" si="0"/>
-        <v>24.657534246575342</v>
+        <v>14.794520547945204</v>
       </c>
       <c r="E13" s="21">
         <f>'SNS configuration'!C39</f>
@@ -10337,11 +10222,11 @@
       </c>
       <c r="H13" s="20">
         <f t="shared" si="2"/>
-        <v>26.815068493150683</v>
+        <v>16.089041095890408</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="3"/>
-        <v>0.42690656307503577</v>
+        <v>0.42690656307503572</v>
       </c>
       <c r="J13" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B51, 100%)</f>
@@ -10349,11 +10234,11 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" si="4"/>
-        <v>26.815068493150683</v>
+        <v>16.089041095890408</v>
       </c>
       <c r="L13" s="78">
         <f t="shared" si="5"/>
-        <v>0.42690656307503577</v>
+        <v>0.42690656307503572</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10440,7 +10325,7 @@
       </c>
       <c r="B16" s="18">
         <f>'SNS configuration'!C29/10^6</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C16" s="19">
         <f>'SNS configuration'!B40</f>
@@ -10448,7 +10333,7 @@
       </c>
       <c r="D16" s="20">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E16" s="21">
         <f>'SNS configuration'!C40</f>
@@ -10464,11 +10349,11 @@
       </c>
       <c r="H16" s="20">
         <f t="shared" ref="H16:H18" si="7">D16*F16*G16</f>
-        <v>30.187500000000004</v>
+        <v>18.112500000000001</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="3"/>
-        <v>0.48059701492537321</v>
+        <v>0.48059701492537316</v>
       </c>
       <c r="J16" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10476,11 +10361,11 @@
       </c>
       <c r="K16" s="20">
         <f t="shared" ref="K16:K18" si="8">H16*J16</f>
-        <v>30.187500000000004</v>
+        <v>18.112500000000001</v>
       </c>
       <c r="L16" s="78">
         <f t="shared" si="5"/>
-        <v>0.48059701492537321</v>
+        <v>0.48059701492537316</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -10586,7 +10471,7 @@
       </c>
       <c r="B19" s="18">
         <f>'SNS configuration'!C32/10^6</f>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C19" s="19">
         <v>0</v>
@@ -10621,14 +10506,14 @@
       <c r="C20" s="7"/>
       <c r="D20" s="20">
         <f>SUM(D12:D19)</f>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="20">
         <f>SUM(H12:H19)</f>
-        <v>62.8125</v>
+        <v>37.6875</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
@@ -10637,7 +10522,7 @@
       </c>
       <c r="K20" s="20">
         <f>SUM(K12:K19)</f>
-        <v>62.8125</v>
+        <v>37.6875</v>
       </c>
       <c r="L20" s="23"/>
     </row>
@@ -10657,7 +10542,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F25"/>
     </sheetView>
   </sheetViews>
@@ -11101,10 +10986,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:D37"/>
+  <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11112,9 +10997,11 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11122,7 +11009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -11133,8 +11020,14 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -11144,14 +11037,22 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C6" si="0">B5/$B$7</f>
-        <v>6.1428571428571426E-3</v>
+        <v>1.0238095238095239E-2</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" si="1">C5*$B$2</f>
-        <v>7.3714285714285704E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.12285714285714286</v>
+      </c>
+      <c r="E5" s="81">
+        <f>$B5*(('SNS configuration'!$C$33)/$B$7)</f>
+        <v>1023809.5238095238</v>
+      </c>
+      <c r="F5" s="80">
+        <f>E5*$B$2</f>
+        <v>12285714.285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -11161,27 +11062,35 @@
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>1.0428571428571429E-2</v>
+        <v>1.7380952380952382E-2</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>0.12514285714285717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.20857142857142857</v>
+      </c>
+      <c r="E6" s="81">
+        <f>$B6*(('SNS configuration'!$C$33)/$B$7)</f>
+        <v>1738095.2380952381</v>
+      </c>
+      <c r="F6" s="80">
+        <f>E6*$B$2</f>
+        <v>20857142.857142858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <f>'SNS configuration'!C28</f>
-        <v>35000000</v>
+        <v>21000000</v>
       </c>
       <c r="D7" s="6">
         <f>D11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
     </row>
@@ -11206,7 +11115,7 @@
       </c>
       <c r="B32" s="7">
         <f>B31/'Token price range'!C6</f>
-        <v>95.890410958904098</v>
+        <v>57.534246575342458</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11233,7 +11142,7 @@
       </c>
       <c r="B35" s="7">
         <f>B32/B33-B34</f>
-        <v>13.5986301369863</v>
+        <v>8.1191780821917803</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -11251,7 +11160,7 @@
       </c>
       <c r="B37" s="8" t="b">
         <f>B35&gt;=B36</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SNS tokenomics.xlsx
+++ b/SNS tokenomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41CDDD-1476-46B6-95F4-9553222E8B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7FB1C7-1ACC-4733-A1E4-677DAA56F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNS configuration" sheetId="4" r:id="rId1"/>
@@ -508,8 +508,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="175" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -854,8 +854,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1187,10 +1187,10 @@
                 <c:formatCode>#,##0.0;\(#,##0.0\)</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.7397260273972601</c:v>
+                  <c:v>4.064516129032258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.260273972602739</c:v>
+                  <c:v>16.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18</c:v>
@@ -1769,10 +1769,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.2496421999591058E-2</c:v>
+                  <c:v>0.1005296100144439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42690656307503572</c:v>
+                  <c:v>0.41887337506018296</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.48059701492537316</c:v>
@@ -2403,7 +2403,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.2496421999591058E-2</c:v>
+                  <c:v>0.1005296100144439</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3916,10 +3916,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>215000</c:v>
+                  <c:v>172000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>365000</c:v>
+                  <c:v>372000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4021,10 +4021,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.12285714285714286</c:v>
+                  <c:v>9.8285714285714282E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20857142857142857</c:v>
+                  <c:v>0.21257142857142858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6244,7 +6244,7 @@
   <dimension ref="A1:F1009"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6317,14 +6317,14 @@
         <v>60</v>
       </c>
       <c r="C6" s="64">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D6" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="66">
         <f t="shared" ref="E6:E8" si="0">C6*10^8</f>
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="F6" s="65" t="s">
         <v>62</v>
@@ -6338,14 +6338,14 @@
         <v>64</v>
       </c>
       <c r="C7" s="64">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="66">
         <f t="shared" si="0"/>
-        <v>10000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F7" s="65" t="s">
         <v>62</v>
@@ -6559,14 +6559,14 @@
         <v>88</v>
       </c>
       <c r="C18" s="69">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="66">
         <f t="shared" ref="E18:E22" si="2">C18*10^8</f>
-        <v>15000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="F18" s="65" t="s">
         <v>90</v>
@@ -6707,14 +6707,14 @@
         <v>105</v>
       </c>
       <c r="C25" s="69">
-        <v>65000</v>
+        <v>72000</v>
       </c>
       <c r="D25" s="65" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="66">
         <f>C25*10^8</f>
-        <v>6500000000000</v>
+        <v>7200000000000</v>
       </c>
       <c r="F25" s="65" t="s">
         <v>90</v>
@@ -9933,8 +9933,8 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B7" s="13">
         <f>'SNS configuration'!C25*1/'Token price range'!C6 / 10^6</f>
-        <v>3.7397260273972601</v>
+        <v>4.064516129032258</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B9" s="13">
         <f>B8-B7</f>
-        <v>17.260273972602739</v>
+        <v>16.935483870967744</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="B12" s="18">
         <f>B7</f>
-        <v>3.7397260273972601</v>
+        <v>4.064516129032258</v>
       </c>
       <c r="C12" s="19">
         <f>'SNS configuration'!B38</f>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" ref="D12:D19" si="0">B12*C12</f>
-        <v>3.205479452054794</v>
+        <v>3.4838709677419351</v>
       </c>
       <c r="E12" s="21">
         <f>'SNS configuration'!C38</f>
@@ -10174,11 +10174,11 @@
       </c>
       <c r="H12" s="20">
         <f t="shared" ref="H12:H14" si="2">D12*F12*G12</f>
-        <v>3.4859589041095882</v>
+        <v>3.7887096774193543</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I19" si="3">H12/$H$20</f>
-        <v>9.2496421999591058E-2</v>
+        <v>0.1005296100144439</v>
       </c>
       <c r="J12" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B50, 100%)</f>
@@ -10186,11 +10186,11 @@
       </c>
       <c r="K12" s="20">
         <f t="shared" ref="K12:K14" si="4">H12*J12</f>
-        <v>3.4859589041095882</v>
+        <v>3.7887096774193543</v>
       </c>
       <c r="L12" s="78">
         <f t="shared" ref="L12:L19" si="5">K12/$K$20</f>
-        <v>9.2496421999591058E-2</v>
+        <v>0.1005296100144439</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B13" s="18">
         <f>IF('SNS configuration'!B45, (1-'SNS configuration'!B46)*B9, B9)</f>
-        <v>17.260273972602739</v>
+        <v>16.935483870967744</v>
       </c>
       <c r="C13" s="19">
         <f>'SNS configuration'!B39</f>
@@ -10207,7 +10207,7 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" si="0"/>
-        <v>14.794520547945204</v>
+        <v>14.516129032258066</v>
       </c>
       <c r="E13" s="21">
         <f>'SNS configuration'!C39</f>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="H13" s="20">
         <f t="shared" si="2"/>
-        <v>16.089041095890408</v>
+        <v>15.786290322580646</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="3"/>
-        <v>0.42690656307503572</v>
+        <v>0.41887337506018296</v>
       </c>
       <c r="J13" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B51, 100%)</f>
@@ -10234,11 +10234,11 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" si="4"/>
-        <v>16.089041095890408</v>
+        <v>15.786290322580646</v>
       </c>
       <c r="L13" s="78">
         <f t="shared" si="5"/>
-        <v>0.42690656307503572</v>
+        <v>0.41887337506018296</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10988,8 +10988,8 @@
   </sheetPr>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11033,23 +11033,23 @@
       </c>
       <c r="B5" s="3">
         <f>'SNS configuration'!C18+'SNS configuration'!C25</f>
-        <v>215000</v>
+        <v>172000</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C6" si="0">B5/$B$7</f>
-        <v>1.0238095238095239E-2</v>
+        <v>8.1904761904761907E-3</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" si="1">C5*$B$2</f>
-        <v>0.12285714285714286</v>
+        <v>9.8285714285714282E-2</v>
       </c>
       <c r="E5" s="81">
         <f>$B5*(('SNS configuration'!$C$33)/$B$7)</f>
-        <v>1023809.5238095238</v>
+        <v>819047.61904761905</v>
       </c>
       <c r="F5" s="80">
         <f>E5*$B$2</f>
-        <v>12285714.285714285</v>
+        <v>9828571.4285714291</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -11058,23 +11058,23 @@
       </c>
       <c r="B6" s="3">
         <f>'SNS configuration'!C19+'SNS configuration'!C25</f>
-        <v>365000</v>
+        <v>372000</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>1.7380952380952382E-2</v>
+        <v>1.7714285714285714E-2</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>0.20857142857142857</v>
+        <v>0.21257142857142858</v>
       </c>
       <c r="E6" s="81">
         <f>$B6*(('SNS configuration'!$C$33)/$B$7)</f>
-        <v>1738095.2380952381</v>
+        <v>1771428.5714285714</v>
       </c>
       <c r="F6" s="80">
         <f>E6*$B$2</f>
-        <v>20857142.857142858</v>
+        <v>21257142.857142858</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -11115,7 +11115,7 @@
       </c>
       <c r="B32" s="7">
         <f>B31/'Token price range'!C6</f>
-        <v>57.534246575342458</v>
+        <v>56.451612903225808</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B34" s="7">
         <f>'SNS configuration'!C6</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -11142,7 +11142,7 @@
       </c>
       <c r="B35" s="7">
         <f>B32/B33-B34</f>
-        <v>8.1191780821917803</v>
+        <v>8.0545161290322582</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">

--- a/SNS tokenomics.xlsx
+++ b/SNS tokenomics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7FB1C7-1ACC-4733-A1E4-677DAA56F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C07292-A01B-46F8-8BFA-D62DE8AF4CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNS configuration" sheetId="4" r:id="rId1"/>
@@ -6243,7 +6243,7 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -9933,7 +9933,7 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
@@ -10988,8 +10988,8 @@
   </sheetPr>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/SNS tokenomics.xlsx
+++ b/SNS tokenomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\v1ctor\projects\neuralarena-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C07292-A01B-46F8-8BFA-D62DE8AF4CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A2DB1-1E8C-4B65-8B73-8938483CC341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNS configuration" sheetId="4" r:id="rId1"/>
@@ -1067,6 +1067,109 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0384-4502-9B6D-BAC0A84E7CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0384-4502-9B6D-BAC0A84E7CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -1155,9 +1258,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Voting power assessment'!$A$12:$A$13,'Voting power assessment'!$A$16,'Voting power assessment'!$A$19)</c:f>
+              <c:f>('Voting power assessment'!$A$12:$A$13,'Voting power assessment'!$A$16:$A$19)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Decentralization swap - NF</c:v>
                 </c:pt>
@@ -1168,6 +1271,12 @@
                   <c:v>Founding team</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Seed funders</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Airdrop</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Treasury</c:v>
                 </c:pt>
               </c:strCache>
@@ -1182,21 +1291,27 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Voting power assessment'!$B$12:$B$13,'Voting power assessment'!$B$16,'Voting power assessment'!$B$19)</c:f>
+              <c:f>('Voting power assessment'!$B$12:$B$13,'Voting power assessment'!$B$16:$B$19)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0;\(#,##0.0\)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.064516129032258</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.935483870967744</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,99 +1385,6 @@
                         <a:gs pos="100000">
                           <a:schemeClr val="accent2">
                             <a:lumMod val="60000"/>
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                  </c15:spPr>
-                  <c15:bubble3D val="0"/>
-                </c15:categoryFilterException>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Voting power assessment'!$B$17</c15:sqref>
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="60000"/>
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="60000"/>
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="60000"/>
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                  </c15:spPr>
-                  <c15:bubble3D val="0"/>
-                </c15:categoryFilterException>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Voting power assessment'!$B$18</c15:sqref>
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent2">
-                            <a:lumMod val="80000"/>
-                            <a:lumOff val="20000"/>
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent2">
-                            <a:lumMod val="80000"/>
-                            <a:lumOff val="20000"/>
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent2">
-                            <a:lumMod val="80000"/>
-                            <a:lumOff val="20000"/>
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
                             <a:shade val="78000"/>
@@ -1674,6 +1696,109 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2A35-4C8D-BC04-B53D8ABBBAFB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2A35-4C8D-BC04-B53D8ABBBAFB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
@@ -1740,9 +1865,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Voting power assessment'!$A$12:$A$13,'Voting power assessment'!$A$16)</c:f>
+              <c:f>('Voting power assessment'!$A$12:$A$13,'Voting power assessment'!$A$16:$A$18)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Decentralization swap - NF</c:v>
                 </c:pt>
@@ -1751,6 +1876,12 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Founding team</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Seed funders</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Airdrop</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1764,18 +1895,24 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Voting power assessment'!$L$12:$L$13,'Voting power assessment'!$L$16)</c:f>
+              <c:f>('Voting power assessment'!$L$12:$L$13,'Voting power assessment'!$L$16:$L$18)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1005296100144439</c:v>
+                  <c:v>0.10713186249358643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41887337506018296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48059701492537316</c:v>
+                  <c:v>0.24781939456131349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19825551564905078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3042585941508468E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,99 +1986,6 @@
                         <a:gs pos="100000">
                           <a:schemeClr val="accent2">
                             <a:lumMod val="60000"/>
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                  </c15:spPr>
-                  <c15:bubble3D val="0"/>
-                </c15:categoryFilterException>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Voting power assessment'!$L$17</c15:sqref>
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="60000"/>
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="60000"/>
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent6">
-                            <a:lumMod val="60000"/>
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                  </c15:spPr>
-                  <c15:bubble3D val="0"/>
-                </c15:categoryFilterException>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Voting power assessment'!$L$18</c15:sqref>
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent2">
-                            <a:lumMod val="80000"/>
-                            <a:lumOff val="20000"/>
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent2">
-                            <a:lumMod val="80000"/>
-                            <a:lumOff val="20000"/>
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent2">
-                            <a:lumMod val="80000"/>
-                            <a:lumOff val="20000"/>
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
                             <a:shade val="78000"/>
@@ -2308,6 +2352,56 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0AF9-4F0F-BA1E-AA65ED1E5646}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="0.00%" sourceLinked="0"/>
             <c:spPr>
@@ -2374,9 +2468,9 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Voting power assessment'!$A$12,'Voting power assessment'!$A$14,'Voting power assessment'!$A$16)</c:f>
+              <c:f>('Voting power assessment'!$A$12,'Voting power assessment'!$A$14,'Voting power assessment'!$A$16:$A$17)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Decentralization swap - NF</c:v>
                 </c:pt>
@@ -2385,6 +2479,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Founding team</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Seed funders</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2398,18 +2495,21 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Voting power assessment'!$L$12,'Voting power assessment'!$L$14,'Voting power assessment'!$L$16)</c:f>
+              <c:f>('Voting power assessment'!$L$12,'Voting power assessment'!$L$14,'Voting power assessment'!$L$16:$L$17)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1005296100144439</c:v>
+                  <c:v>0.10713186249358643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.4137506413545407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48059701492537316</c:v>
+                  <c:v>0.24781939456131349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19825551564905078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,51 +2582,6 @@
                         </a:gs>
                         <a:gs pos="100000">
                           <a:schemeClr val="accent6">
-                            <a:lumMod val="60000"/>
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                  </c15:spPr>
-                  <c15:bubble3D val="0"/>
-                </c15:categoryFilterException>
-                <c15:categoryFilterException>
-                  <c15:sqref>'Voting power assessment'!$L$17</c15:sqref>
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent4">
-                            <a:lumMod val="60000"/>
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent4">
-                            <a:lumMod val="60000"/>
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent4">
                             <a:lumMod val="60000"/>
                             <a:lumMod val="99000"/>
                             <a:satMod val="120000"/>
@@ -3630,7 +3685,7 @@
                 <c:formatCode>#,##0;\(#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21000000</c:v>
+                  <c:v>28000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3916,10 +3971,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>172000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>372000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4021,10 +4076,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9.8285714285714282E-2</c:v>
+                  <c:v>4.9999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21257142857142858</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6243,8 +6298,8 @@
   </sheetPr>
   <dimension ref="A1:F1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6643,14 +6698,14 @@
         <v>98</v>
       </c>
       <c r="C22" s="69">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D22" s="65" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="66">
         <f t="shared" si="2"/>
-        <v>10000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="F22" s="65" t="s">
         <v>90</v>
@@ -6707,14 +6762,14 @@
         <v>105</v>
       </c>
       <c r="C25" s="69">
-        <v>72000</v>
+        <v>100000</v>
       </c>
       <c r="D25" s="65" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="66">
         <f>C25*10^8</f>
-        <v>7200000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="F25" s="65" t="s">
         <v>90</v>
@@ -6738,14 +6793,14 @@
         <v>108</v>
       </c>
       <c r="C27" s="70">
-        <v>21000000</v>
+        <v>28000000</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="66">
         <f t="shared" ref="E27:E32" si="3">C27*10^8</f>
-        <v>2100000000000000</v>
+        <v>2800000000000000</v>
       </c>
       <c r="F27" s="65" t="s">
         <v>90</v>
@@ -6759,14 +6814,14 @@
         <v>110</v>
       </c>
       <c r="C28" s="70">
-        <v>21000000</v>
+        <v>28000000</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="66">
         <f t="shared" si="3"/>
-        <v>2100000000000000</v>
+        <v>2800000000000000</v>
       </c>
       <c r="F28" s="65" t="s">
         <v>90</v>
@@ -6780,14 +6835,14 @@
         <v>112</v>
       </c>
       <c r="C29" s="71">
-        <v>18000000</v>
+        <v>15000000</v>
       </c>
       <c r="D29" s="72" t="s">
         <v>61</v>
       </c>
       <c r="E29" s="73">
         <f t="shared" si="3"/>
-        <v>1800000000000000</v>
+        <v>1500000000000000</v>
       </c>
       <c r="F29" s="72" t="s">
         <v>90</v>
@@ -6801,14 +6856,14 @@
         <v>114</v>
       </c>
       <c r="C30" s="70">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="D30" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1200000000000000</v>
       </c>
       <c r="F30" s="65" t="s">
         <v>90</v>
@@ -6822,14 +6877,14 @@
         <v>116</v>
       </c>
       <c r="C31" s="70">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="D31" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>200000000000000</v>
       </c>
       <c r="F31" s="65" t="s">
         <v>90</v>
@@ -6843,14 +6898,14 @@
         <v>118</v>
       </c>
       <c r="C32" s="70">
-        <v>61000000</v>
+        <v>43000000</v>
       </c>
       <c r="D32" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="66">
         <f t="shared" si="3"/>
-        <v>6100000000000000</v>
+        <v>4300000000000000</v>
       </c>
       <c r="F32" s="65" t="s">
         <v>90</v>
@@ -6975,7 +7030,7 @@
         <v>126</v>
       </c>
       <c r="B45" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -7046,7 +7101,7 @@
         <v>39</v>
       </c>
       <c r="B54" s="46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -9933,8 +9988,8 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10024,7 +10079,7 @@
       </c>
       <c r="B7" s="13">
         <f>'SNS configuration'!C25*1/'Token price range'!C6 / 10^6</f>
-        <v>4.064516129032258</v>
+        <v>7</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -10044,7 +10099,7 @@
       </c>
       <c r="B8" s="14">
         <f>'SNS configuration'!C28/10^6</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -10064,7 +10119,7 @@
       </c>
       <c r="B9" s="13">
         <f>B8-B7</f>
-        <v>16.935483870967744</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -10151,7 +10206,7 @@
       </c>
       <c r="B12" s="18">
         <f>B7</f>
-        <v>4.064516129032258</v>
+        <v>7</v>
       </c>
       <c r="C12" s="19">
         <f>'SNS configuration'!B38</f>
@@ -10159,7 +10214,7 @@
       </c>
       <c r="D12" s="20">
         <f t="shared" ref="D12:D19" si="0">B12*C12</f>
-        <v>3.4838709677419351</v>
+        <v>6</v>
       </c>
       <c r="E12" s="21">
         <f>'SNS configuration'!C38</f>
@@ -10174,11 +10229,11 @@
       </c>
       <c r="H12" s="20">
         <f t="shared" ref="H12:H14" si="2">D12*F12*G12</f>
-        <v>3.7887096774193543</v>
+        <v>6.5249999999999995</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I19" si="3">H12/$H$20</f>
-        <v>0.1005296100144439</v>
+        <v>0.10713186249358643</v>
       </c>
       <c r="J12" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B50, 100%)</f>
@@ -10186,11 +10241,11 @@
       </c>
       <c r="K12" s="20">
         <f t="shared" ref="K12:K14" si="4">H12*J12</f>
-        <v>3.7887096774193543</v>
+        <v>6.5249999999999995</v>
       </c>
       <c r="L12" s="78">
         <f t="shared" ref="L12:L19" si="5">K12/$K$20</f>
-        <v>0.1005296100144439</v>
+        <v>0.10713186249358643</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10199,7 +10254,7 @@
       </c>
       <c r="B13" s="18">
         <f>IF('SNS configuration'!B45, (1-'SNS configuration'!B46)*B9, B9)</f>
-        <v>16.935483870967744</v>
+        <v>0</v>
       </c>
       <c r="C13" s="19">
         <f>'SNS configuration'!B39</f>
@@ -10207,7 +10262,7 @@
       </c>
       <c r="D13" s="20">
         <f t="shared" si="0"/>
-        <v>14.516129032258066</v>
+        <v>0</v>
       </c>
       <c r="E13" s="21">
         <f>'SNS configuration'!C39</f>
@@ -10222,11 +10277,11 @@
       </c>
       <c r="H13" s="20">
         <f t="shared" si="2"/>
-        <v>15.786290322580646</v>
+        <v>0</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="3"/>
-        <v>0.41887337506018296</v>
+        <v>0</v>
       </c>
       <c r="J13" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B51, 100%)</f>
@@ -10234,11 +10289,11 @@
       </c>
       <c r="K13" s="20">
         <f t="shared" si="4"/>
-        <v>15.786290322580646</v>
+        <v>0</v>
       </c>
       <c r="L13" s="78">
         <f t="shared" si="5"/>
-        <v>0.41887337506018296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10247,7 +10302,7 @@
       </c>
       <c r="B14" s="18">
         <f>IF('SNS configuration'!B45, 'SNS configuration'!B46*B9, 0)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C14" s="19">
         <f>'SNS configuration'!B47</f>
@@ -10255,7 +10310,7 @@
       </c>
       <c r="D14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E14" s="7">
         <f>'SNS configuration'!B48</f>
@@ -10270,11 +10325,11 @@
       </c>
       <c r="H14" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.4137506413545407</v>
       </c>
       <c r="J14" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10282,11 +10337,11 @@
       </c>
       <c r="K14" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25.2</v>
       </c>
       <c r="L14" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.4137506413545407</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
@@ -10325,7 +10380,7 @@
       </c>
       <c r="B16" s="18">
         <f>'SNS configuration'!C29/10^6</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" s="19">
         <f>'SNS configuration'!B40</f>
@@ -10333,7 +10388,7 @@
       </c>
       <c r="D16" s="20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="21">
         <f>'SNS configuration'!C40</f>
@@ -10349,11 +10404,11 @@
       </c>
       <c r="H16" s="20">
         <f t="shared" ref="H16:H18" si="7">D16*F16*G16</f>
-        <v>18.112500000000001</v>
+        <v>15.093750000000002</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="3"/>
-        <v>0.48059701492537316</v>
+        <v>0.24781939456131349</v>
       </c>
       <c r="J16" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B52, 100%)</f>
@@ -10361,11 +10416,11 @@
       </c>
       <c r="K16" s="20">
         <f t="shared" ref="K16:K18" si="8">H16*J16</f>
-        <v>18.112500000000001</v>
+        <v>15.093750000000002</v>
       </c>
       <c r="L16" s="78">
         <f t="shared" si="5"/>
-        <v>0.48059701492537316</v>
+        <v>0.24781939456131349</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -10374,7 +10429,7 @@
       </c>
       <c r="B17" s="18">
         <f>'SNS configuration'!C30/10^6</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C17" s="19">
         <f>'SNS configuration'!B41</f>
@@ -10382,7 +10437,7 @@
       </c>
       <c r="D17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E17" s="21">
         <f>'SNS configuration'!C41</f>
@@ -10398,11 +10453,11 @@
       </c>
       <c r="H17" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12.075000000000001</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.19825551564905078</v>
       </c>
       <c r="J17" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B53, 100%)</f>
@@ -10410,11 +10465,11 @@
       </c>
       <c r="K17" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12.075000000000001</v>
       </c>
       <c r="L17" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.19825551564905078</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -10423,7 +10478,7 @@
       </c>
       <c r="B18" s="18">
         <f>'SNS configuration'!C31/10^6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="19">
         <f>'SNS configuration'!B42</f>
@@ -10431,7 +10486,7 @@
       </c>
       <c r="D18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="21">
         <f>'SNS configuration'!C42</f>
@@ -10446,11 +10501,11 @@
       </c>
       <c r="H18" s="20">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.0125000000000002</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.3042585941508468E-2</v>
       </c>
       <c r="J18" s="19">
         <f>IF( 'SNS configuration'!$B$45, 'SNS configuration'!B54, 100%)</f>
@@ -10458,11 +10513,11 @@
       </c>
       <c r="K18" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.0125000000000002</v>
       </c>
       <c r="L18" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.3042585941508468E-2</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -10471,7 +10526,7 @@
       </c>
       <c r="B19" s="18">
         <f>'SNS configuration'!C32/10^6</f>
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C19" s="19">
         <v>0</v>
@@ -10506,14 +10561,14 @@
       <c r="C20" s="7"/>
       <c r="D20" s="20">
         <f>SUM(D12:D19)</f>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="20">
         <f>SUM(H12:H19)</f>
-        <v>37.6875</v>
+        <v>60.906250000000007</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
@@ -10522,7 +10577,7 @@
       </c>
       <c r="K20" s="20">
         <f>SUM(K12:K19)</f>
-        <v>37.6875</v>
+        <v>60.906250000000007</v>
       </c>
       <c r="L20" s="23"/>
     </row>
@@ -10988,8 +11043,8 @@
   </sheetPr>
   <dimension ref="A2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11006,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -11033,23 +11088,23 @@
       </c>
       <c r="B5" s="3">
         <f>'SNS configuration'!C18+'SNS configuration'!C25</f>
-        <v>172000</v>
+        <v>200000</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C6" si="0">B5/$B$7</f>
-        <v>8.1904761904761907E-3</v>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" si="1">C5*$B$2</f>
-        <v>9.8285714285714282E-2</v>
+        <v>4.9999999999999996E-2</v>
       </c>
       <c r="E5" s="81">
         <f>$B5*(('SNS configuration'!$C$33)/$B$7)</f>
-        <v>819047.61904761905</v>
+        <v>714285.71428571432</v>
       </c>
       <c r="F5" s="80">
         <f>E5*$B$2</f>
-        <v>9828571.4285714291</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -11058,23 +11113,23 @@
       </c>
       <c r="B6" s="3">
         <f>'SNS configuration'!C19+'SNS configuration'!C25</f>
-        <v>372000</v>
+        <v>400000</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>1.7714285714285714E-2</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>0.21257142857142858</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="E6" s="81">
         <f>$B6*(('SNS configuration'!$C$33)/$B$7)</f>
-        <v>1771428.5714285714</v>
+        <v>1428571.4285714286</v>
       </c>
       <c r="F6" s="80">
         <f>E6*$B$2</f>
-        <v>21257142.857142858</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -11083,7 +11138,7 @@
       </c>
       <c r="B7" s="5">
         <f>'SNS configuration'!C28</f>
-        <v>21000000</v>
+        <v>28000000</v>
       </c>
       <c r="D7" s="6">
         <f>D11</f>
@@ -11115,7 +11170,7 @@
       </c>
       <c r="B32" s="7">
         <f>B31/'Token price range'!C6</f>
-        <v>56.451612903225808</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -11142,7 +11197,7 @@
       </c>
       <c r="B35" s="7">
         <f>B32/B33-B34</f>
-        <v>8.0545161290322582</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
